--- a/src/main/resources/input/credentials.xlsx
+++ b/src/main/resources/input/credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subbu/Documents/GitHub/PageObjectModel/src/main/resources/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FF49A-C6EE-564C-859F-F454323FB620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C30BF-763D-BD43-A96B-4A0D206B894C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{E2431A29-28E1-E544-941A-BA3E4A034276}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>userName</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>22487subbu95816</t>
-  </si>
-  <si>
-    <t>subbareddy.chinta</t>
   </si>
   <si>
     <t>student.learning</t>
@@ -439,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AB353F-4090-8249-9895-C68AD3E20026}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,10 +456,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -489,28 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="subbareddy.chinta@gmail.com" xr:uid="{85ECA4F9-A7AE-A541-A84A-68801480781E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:student.learning@gmail.com" xr:uid="{8D956267-3792-3D4D-9328-019BE5A9EE89}"/>
-    <hyperlink ref="B3" r:id="rId3" display="mailto:password@123" xr:uid="{6948B77D-34AE-9941-B066-FA44E4320979}"/>
-    <hyperlink ref="A4" r:id="rId4" display="mailto:google.goole@" xr:uid="{3F4E183A-DFF7-CA4F-91FE-3093434611E0}"/>
-    <hyperlink ref="B4" r:id="rId5" display="mailto:hello@143" xr:uid="{256524EF-EA83-9148-A052-253E8124F581}"/>
-    <hyperlink ref="A5" r:id="rId6" display="mailto:mobirevshare1@gmail.com" xr:uid="{36E7EF4E-3829-B145-B721-51EFABC4A055}"/>
-    <hyperlink ref="B5" r:id="rId7" display="mailto:newcar@mine" xr:uid="{B5324DBB-59D4-0B4C-9FD0-FC38F390ABAD}"/>
-    <hyperlink ref="A6" r:id="rId8" display="mailto:mobirevshare1@gmail.com" xr:uid="{20E531FA-9E36-4246-905F-D9E904C5F3DB}"/>
-    <hyperlink ref="B6" r:id="rId9" display="mailto:hello@143" xr:uid="{53B43C72-5A72-AD42-AF3E-D85490DCCABB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:student.learning@gmail.com" xr:uid="{8D956267-3792-3D4D-9328-019BE5A9EE89}"/>
+    <hyperlink ref="B2" r:id="rId2" display="mailto:password@123" xr:uid="{6948B77D-34AE-9941-B066-FA44E4320979}"/>
+    <hyperlink ref="A3" r:id="rId3" display="mailto:google.goole@" xr:uid="{3F4E183A-DFF7-CA4F-91FE-3093434611E0}"/>
+    <hyperlink ref="B3" r:id="rId4" display="mailto:hello@143" xr:uid="{256524EF-EA83-9148-A052-253E8124F581}"/>
+    <hyperlink ref="A4" r:id="rId5" display="mailto:mobirevshare1@gmail.com" xr:uid="{36E7EF4E-3829-B145-B721-51EFABC4A055}"/>
+    <hyperlink ref="B4" r:id="rId6" display="mailto:newcar@mine" xr:uid="{B5324DBB-59D4-0B4C-9FD0-FC38F390ABAD}"/>
+    <hyperlink ref="A5" r:id="rId7" display="mailto:mobirevshare1@gmail.com" xr:uid="{20E531FA-9E36-4246-905F-D9E904C5F3DB}"/>
+    <hyperlink ref="B5" r:id="rId8" display="mailto:hello@143" xr:uid="{53B43C72-5A72-AD42-AF3E-D85490DCCABB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/credentials.xlsx
+++ b/src/main/resources/input/credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subbu/Documents/GitHub/PageObjectModel/src/main/resources/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C30BF-763D-BD43-A96B-4A0D206B894C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA28A6-8991-8143-AD8F-19923AAC4E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{E2431A29-28E1-E544-941A-BA3E4A034276}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
